--- a/CRCL.xlsx
+++ b/CRCL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0147CBA-B555-4479-AFD0-998482BBE24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB477C60-6A5B-467E-BA00-6F6839AED6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{6B57BD0C-18CC-4F4D-8FF7-4D12034C8DF5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Circle</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Stable Coin Market Share</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -586,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABA8F-246A-44D6-8DA0-D56E531392CF}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,12 +600,12 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -610,46 +613,69 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>92.75</v>
+        <v>105.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="7">
+        <f>185.168418+22.571697</f>
+        <v>207.740115</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="7">
+        <f>+I2*I3</f>
+        <v>22005.910381950001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="7">
+        <f>846.606+274.539</f>
+        <v>1121.145</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="7">
+        <v>37.414000000000001</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="7">
+        <f>+I4-I5+I6</f>
+        <v>20922.179381950002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -657,12 +683,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
@@ -670,7 +696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>

--- a/CRCL.xlsx
+++ b/CRCL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB477C60-6A5B-467E-BA00-6F6839AED6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9BC573-E1AB-4E66-B15C-F65C40B2C119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{6B57BD0C-18CC-4F4D-8FF7-4D12034C8DF5}"/>
+    <workbookView xWindow="225" yWindow="780" windowWidth="38175" windowHeight="15240" xr2:uid="{6B57BD0C-18CC-4F4D-8FF7-4D12034C8DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>105.93</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
       </c>
       <c r="I4" s="7">
         <f>+I2*I3</f>
-        <v>22005.910381950001</v>
+        <v>45785.921346000003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
       </c>
       <c r="I7" s="7">
         <f>+I4-I5+I6</f>
-        <v>20922.179381950002</v>
+        <v>44702.190346000003</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
